--- a/00_Raw_Assets/quotes_v1.xlsx
+++ b/00_Raw_Assets/quotes_v1.xlsx
@@ -5,28 +5,42 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/01_Tutorials/13_91902_Complex_DB_2021/91902_Support_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\01_GK_Tutorials\12_91902_Quotes_DB\00_Raw_Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:40009_{9D8BBAB9-FE52-49AE-80E4-CBD616388BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{243354E9-573D-4A3D-88F3-7A28677D4010}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E6AD78-F27F-413A-BA0C-6151542442AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
     <sheet name="Quotes" sheetId="1" r:id="rId2"/>
-    <sheet name="Authors" sheetId="3" r:id="rId3"/>
+    <sheet name="Subject" sheetId="4" r:id="rId3"/>
+    <sheet name="Authors" sheetId="3" r:id="rId4"/>
+    <sheet name="Country" sheetId="5" r:id="rId5"/>
+    <sheet name="Career" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Authors!$A$1:$G$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotes!$A$1:$F$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Authors!$A$1:$K$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotes!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="333">
   <si>
     <t>misattributed-eleanor-roosevelt</t>
   </si>
@@ -989,6 +1003,42 @@
   </si>
   <si>
     <t>reality</t>
+  </si>
+  <si>
+    <t>Author_ID</t>
+  </si>
+  <si>
+    <t>Subject_ID</t>
+  </si>
+  <si>
+    <t>Subject1_ID</t>
+  </si>
+  <si>
+    <t>Subject2_ID</t>
+  </si>
+  <si>
+    <t>Subject3_ID</t>
+  </si>
+  <si>
+    <t>Country_ID</t>
+  </si>
+  <si>
+    <t>Country1_ID</t>
+  </si>
+  <si>
+    <t>Country2_ID</t>
+  </si>
+  <si>
+    <t>Career_ID</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>Job1_ID</t>
+  </si>
+  <si>
+    <t>Job2_ID</t>
   </si>
 </sst>
 </file>
@@ -1906,1520 +1956,3166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>231</v>
       </c>
       <c r="B1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" t="s">
         <v>232</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>318</v>
       </c>
       <c r="E1" t="s">
         <v>318</v>
       </c>
       <c r="F1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <f>VLOOKUP(A2,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>168</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <f>VLOOKUP(E2,Subject!$A$2:$B$94,2)</f>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>213</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2">
+        <f>VLOOKUP(G2,Subject!$A$2:$B$94,2)</f>
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>VLOOKUP(I2,Subject!$A$2:$B$94,2)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <f>VLOOKUP(A3,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>170</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <f>VLOOKUP(E3,Subject!$A$2:$B$94,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>171</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3">
+        <f>VLOOKUP(G3,Subject!$A$2:$B$94,2)</f>
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f>VLOOKUP(I3,Subject!$A$2:$B$94,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <f>VLOOKUP(A4,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <f>VLOOKUP(E4,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4">
+        <f>VLOOKUP(G4,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>VLOOKUP(I4,Subject!$A$2:$B$94,2)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <f>VLOOKUP(A5,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>173</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5">
+        <f>VLOOKUP(E5,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
         <v>174</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5">
+        <f>VLOOKUP(G5,Subject!$A$2:$B$94,2)</f>
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>VLOOKUP(I5,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <f>VLOOKUP(A6,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6">
+        <f>VLOOKUP(E6,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>233</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6">
+        <f>VLOOKUP(G6,Subject!$A$2:$B$94,2)</f>
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>VLOOKUP(I6,Subject!$A$2:$B$94,2)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <f>VLOOKUP(A7,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>319</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7">
+        <f>VLOOKUP(E7,Subject!$A$2:$B$94,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>175</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7">
+        <f>VLOOKUP(G7,Subject!$A$2:$B$94,2)</f>
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>VLOOKUP(I7,Subject!$A$2:$B$94,2)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>247</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <f>VLOOKUP(A8,Authors!$A$2:$B$52,2)</f>
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <f>VLOOKUP(E8,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8">
+        <f>VLOOKUP(G8,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>VLOOKUP(I8,Subject!$A$2:$B$94,2)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <f>VLOOKUP(A9,Authors!$A$2:$B$52,2)</f>
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>145</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>178</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>177</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9">
+        <f>VLOOKUP(E9,Subject!$A$2:$B$94,2)</f>
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f>VLOOKUP(G9,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="J9" t="e">
+        <f>VLOOKUP(I9,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <f>VLOOKUP(A10,Authors!$A$2:$B$52,2)</f>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>146</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>235</v>
       </c>
       <c r="E10" t="s">
         <v>235</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <f>VLOOKUP(E10,Subject!$A$2:$B$94,2)</f>
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP(G10,Subject!$A$2:$B$94,2)</f>
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>VLOOKUP(I10,Subject!$A$2:$B$94,2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <f>VLOOKUP(A11,Authors!$A$2:$B$52,2)</f>
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11">
+        <f>VLOOKUP(E11,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
         <v>179</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11">
+        <f>VLOOKUP(G11,Subject!$A$2:$B$94,2)</f>
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f>VLOOKUP(I11,Subject!$A$2:$B$94,2)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <f>VLOOKUP(A12,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>147</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12">
+        <f>VLOOKUP(E12,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
         <v>175</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12">
+        <f>VLOOKUP(G12,Subject!$A$2:$B$94,2)</f>
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>VLOOKUP(I12,Subject!$A$2:$B$94,2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <f>VLOOKUP(A13,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13">
+        <f>VLOOKUP(E13,Subject!$A$2:$B$94,2)</f>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>181</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13">
+        <f>VLOOKUP(G13,Subject!$A$2:$B$94,2)</f>
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f>VLOOKUP(I13,Subject!$A$2:$B$94,2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <f>VLOOKUP(A14,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>148</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>182</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14">
+        <f>VLOOKUP(E14,Subject!$A$2:$B$94,2)</f>
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>VLOOKUP(G14,Subject!$A$2:$B$94,2)</f>
+        <v>86</v>
+      </c>
+      <c r="J14" t="e">
+        <f>VLOOKUP(I14,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <f>VLOOKUP(A15,Authors!$A$2:$B$52,2)</f>
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>VLOOKUP(E15,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="H15" t="e">
+        <f>VLOOKUP(G15,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="e">
+        <f>VLOOKUP(I15,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <f>VLOOKUP(A16,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>VLOOKUP(E16,Subject!$A$2:$B$94,2)</f>
+        <v>29</v>
+      </c>
+      <c r="H16" t="e">
+        <f>VLOOKUP(G16,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="e">
+        <f>VLOOKUP(I16,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <f>VLOOKUP(A17,Authors!$A$2:$B$52,2)</f>
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17">
+        <f>VLOOKUP(E17,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>VLOOKUP(G17,Subject!$A$2:$B$94,2)</f>
+        <v>61</v>
+      </c>
+      <c r="J17" t="e">
+        <f>VLOOKUP(I17,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <f>VLOOKUP(A18,Authors!$A$2:$B$52,2)</f>
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>185</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18">
+        <f>VLOOKUP(E18,Subject!$A$2:$B$94,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
         <v>187</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18">
+        <f>VLOOKUP(G18,Subject!$A$2:$B$94,2)</f>
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>VLOOKUP(I18,Subject!$A$2:$B$94,2)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>246</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <f>VLOOKUP(A19,Authors!$A$2:$B$52,2)</f>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19">
+        <f>VLOOKUP(E19,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
         <v>181</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19">
+        <f>VLOOKUP(G19,Subject!$A$2:$B$94,2)</f>
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>VLOOKUP(I19,Subject!$A$2:$B$94,2)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <f>VLOOKUP(A20,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>80</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>173</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20">
+        <f>VLOOKUP(E20,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f>VLOOKUP(G20,Subject!$A$2:$B$94,2)</f>
+        <v>33</v>
+      </c>
+      <c r="J20" t="e">
+        <f>VLOOKUP(I20,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <f>VLOOKUP(A21,Authors!$A$2:$B$52,2)</f>
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>191</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>190</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21">
+        <f>VLOOKUP(E21,Subject!$A$2:$B$94,2)</f>
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21">
+        <f>VLOOKUP(G21,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f>VLOOKUP(I21,Subject!$A$2:$B$94,2)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <f>VLOOKUP(A22,Authors!$A$2:$B$52,2)</f>
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22">
+        <f>VLOOKUP(E22,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f>VLOOKUP(G22,Subject!$A$2:$B$94,2)</f>
+        <v>69</v>
+      </c>
+      <c r="J22" t="e">
+        <f>VLOOKUP(I22,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <f>VLOOKUP(A23,Authors!$A$2:$B$52,2)</f>
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>VLOOKUP(E23,Subject!$A$2:$B$94,2)</f>
+        <v>39</v>
+      </c>
+      <c r="H23" t="e">
+        <f>VLOOKUP(G23,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J23" t="e">
+        <f>VLOOKUP(I23,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <f>VLOOKUP(A24,Authors!$A$2:$B$52,2)</f>
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>307</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24">
+        <f>VLOOKUP(E24,Subject!$A$2:$B$94,2)</f>
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
         <v>311</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24">
+        <f>VLOOKUP(G24,Subject!$A$2:$B$94,2)</f>
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>VLOOKUP(I24,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <f>VLOOKUP(A25,Authors!$A$2:$B$52,2)</f>
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25">
+        <f>VLOOKUP(E25,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f>VLOOKUP(G25,Subject!$A$2:$B$94,2)</f>
+        <v>73</v>
+      </c>
+      <c r="J25" t="e">
+        <f>VLOOKUP(I25,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <f>VLOOKUP(A26,Authors!$A$2:$B$52,2)</f>
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>VLOOKUP(E26,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="H26" t="e">
+        <f>VLOOKUP(G26,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="e">
+        <f>VLOOKUP(I26,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <f>VLOOKUP(A27,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>195</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27">
+        <f>VLOOKUP(E27,Subject!$A$2:$B$94,2)</f>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
         <v>19</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27">
+        <f>VLOOKUP(G27,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f>VLOOKUP(I27,Subject!$A$2:$B$94,2)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <f>VLOOKUP(A28,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>197</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28">
+        <f>VLOOKUP(E28,Subject!$A$2:$B$94,2)</f>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
         <v>199</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28">
+        <f>VLOOKUP(G28,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>VLOOKUP(I28,Subject!$A$2:$B$94,2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <f>VLOOKUP(A29,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>19</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29">
+        <f>VLOOKUP(E29,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
         <v>177</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29">
+        <f>VLOOKUP(G29,Subject!$A$2:$B$94,2)</f>
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f>VLOOKUP(I29,Subject!$A$2:$B$94,2)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <f>VLOOKUP(A30,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>90</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>VLOOKUP(E30,Subject!$A$2:$B$94,2)</f>
+        <v>43</v>
+      </c>
+      <c r="H30" t="e">
+        <f>VLOOKUP(G30,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="e">
+        <f>VLOOKUP(I30,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <f>VLOOKUP(A31,Authors!$A$2:$B$52,2)</f>
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>VLOOKUP(E31,Subject!$A$2:$B$94,2)</f>
+        <v>60</v>
+      </c>
+      <c r="H31" t="e">
+        <f>VLOOKUP(G31,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" t="e">
+        <f>VLOOKUP(I31,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <f>VLOOKUP(A32,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
         <v>151</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>198</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32">
+        <f>VLOOKUP(E32,Subject!$A$2:$B$94,2)</f>
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
         <v>199</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32">
+        <f>VLOOKUP(G32,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f>VLOOKUP(I32,Subject!$A$2:$B$94,2)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <f>VLOOKUP(A33,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>320</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33">
+        <f>VLOOKUP(E33,Subject!$A$2:$B$94,2)</f>
+        <v>71</v>
+      </c>
+      <c r="G33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f>VLOOKUP(G33,Subject!$A$2:$B$94,2)</f>
+        <v>43</v>
+      </c>
+      <c r="J33" t="e">
+        <f>VLOOKUP(I33,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <f>VLOOKUP(A34,Authors!$A$2:$B$52,2)</f>
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f>VLOOKUP(E34,Subject!$A$2:$B$94,2)</f>
+        <v>33</v>
+      </c>
+      <c r="H34" t="e">
+        <f>VLOOKUP(G34,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="e">
+        <f>VLOOKUP(I34,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <f>VLOOKUP(A35,Authors!$A$2:$B$52,2)</f>
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
         <v>94</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>201</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35">
+        <f>VLOOKUP(E35,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f>VLOOKUP(G35,Subject!$A$2:$B$94,2)</f>
+        <v>38</v>
+      </c>
+      <c r="J35" t="e">
+        <f>VLOOKUP(I35,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <f>VLOOKUP(A36,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>202</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36">
+        <f>VLOOKUP(E36,Subject!$A$2:$B$94,2)</f>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f>VLOOKUP(G36,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="J36" t="e">
+        <f>VLOOKUP(I36,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <f>VLOOKUP(A37,Authors!$A$2:$B$52,2)</f>
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
         <v>152</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>203</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37">
+        <f>VLOOKUP(E37,Subject!$A$2:$B$94,2)</f>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
         <v>204</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37">
+        <f>VLOOKUP(G37,Subject!$A$2:$B$94,2)</f>
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>VLOOKUP(I37,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <f>VLOOKUP(A38,Authors!$A$2:$B$52,2)</f>
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
         <v>153</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>205</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f>VLOOKUP(E38,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+      <c r="H38" t="e">
+        <f>VLOOKUP(G38,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J38" t="e">
+        <f>VLOOKUP(I38,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <f>VLOOKUP(A39,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>96</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>206</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39">
+        <f>VLOOKUP(E39,Subject!$A$2:$B$94,2)</f>
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
         <v>198</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39">
+        <f>VLOOKUP(G39,Subject!$A$2:$B$94,2)</f>
+        <v>50</v>
+      </c>
+      <c r="I39" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f>VLOOKUP(I39,Subject!$A$2:$B$94,2)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <f>VLOOKUP(A40,Authors!$A$2:$B$52,2)</f>
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
         <v>97</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>173</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40">
+        <f>VLOOKUP(E40,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f>VLOOKUP(G40,Subject!$A$2:$B$94,2)</f>
+        <v>51</v>
+      </c>
+      <c r="J40" t="e">
+        <f>VLOOKUP(I40,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <f>VLOOKUP(A41,Authors!$A$2:$B$52,2)</f>
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
         <v>98</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f>VLOOKUP(E41,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="H41" t="e">
+        <f>VLOOKUP(G41,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J41" t="e">
+        <f>VLOOKUP(I41,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <f>VLOOKUP(A42,Authors!$A$2:$B$52,2)</f>
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
         <v>99</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>199</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42">
+        <f>VLOOKUP(E42,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
         <v>173</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42">
+        <f>VLOOKUP(G42,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f>VLOOKUP(I42,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <f>VLOOKUP(A43,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
         <v>100</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>173</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43">
+        <f>VLOOKUP(E43,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
         <v>199</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43">
+        <f>VLOOKUP(G43,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f>VLOOKUP(I43,Subject!$A$2:$B$94,2)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <f>VLOOKUP(A44,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
         <v>101</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>310</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44">
+        <f>VLOOKUP(E44,Subject!$A$2:$B$94,2)</f>
+        <v>84</v>
+      </c>
+      <c r="G44" t="s">
         <v>313</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44">
+        <f>VLOOKUP(G44,Subject!$A$2:$B$94,2)</f>
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f>VLOOKUP(I44,Subject!$A$2:$B$94,2)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <f>VLOOKUP(A45,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
         <v>102</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>209</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45">
+        <f>VLOOKUP(E45,Subject!$A$2:$B$94,2)</f>
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f>VLOOKUP(G45,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="J45" t="e">
+        <f>VLOOKUP(I45,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <f>VLOOKUP(A46,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>103</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f>VLOOKUP(E46,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="H46" t="e">
+        <f>VLOOKUP(G46,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J46" t="e">
+        <f>VLOOKUP(I46,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <f>VLOOKUP(A47,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
         <v>104</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f>VLOOKUP(E47,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="H47" t="e">
+        <f>VLOOKUP(G47,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J47" t="e">
+        <f>VLOOKUP(I47,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <f>VLOOKUP(A48,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48">
+        <f>VLOOKUP(E48,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f>VLOOKUP(G48,Subject!$A$2:$B$94,2)</f>
+        <v>89</v>
+      </c>
+      <c r="J48" t="e">
+        <f>VLOOKUP(I48,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <f>VLOOKUP(A49,Authors!$A$2:$B$52,2)</f>
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
         <v>105</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>210</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49">
+        <f>VLOOKUP(E49,Subject!$A$2:$B$94,2)</f>
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f>VLOOKUP(G49,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="J49" t="e">
+        <f>VLOOKUP(I49,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <f>VLOOKUP(A50,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
         <v>106</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f>VLOOKUP(E50,Subject!$A$2:$B$94,2)</f>
+        <v>23</v>
+      </c>
+      <c r="H50" t="e">
+        <f>VLOOKUP(G50,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J50" t="e">
+        <f>VLOOKUP(I50,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <f>VLOOKUP(A51,Authors!$A$2:$B$52,2)</f>
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
         <v>107</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>VLOOKUP(E51,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="H51" t="e">
+        <f>VLOOKUP(G51,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J51" t="e">
+        <f>VLOOKUP(I51,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <f>VLOOKUP(A52,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
         <v>108</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>181</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52">
+        <f>VLOOKUP(E52,Subject!$A$2:$B$94,2)</f>
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f>VLOOKUP(G52,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="J52" t="e">
+        <f>VLOOKUP(I52,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <f>VLOOKUP(A53,Authors!$A$2:$B$52,2)</f>
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
         <v>109</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>211</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>212</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53">
+        <f>VLOOKUP(E53,Subject!$A$2:$B$94,2)</f>
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f>VLOOKUP(G53,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="J53" t="e">
+        <f>VLOOKUP(I53,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <f>VLOOKUP(A54,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
         <v>110</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>1</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54">
+        <f>VLOOKUP(E54,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="G54" t="s">
         <v>219</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54">
+        <f>VLOOKUP(G54,Subject!$A$2:$B$94,2)</f>
+        <v>37</v>
+      </c>
+      <c r="I54" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f>VLOOKUP(I54,Subject!$A$2:$B$94,2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <f>VLOOKUP(A55,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
         <v>111</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f>VLOOKUP(E55,Subject!$A$2:$B$94,2)</f>
+        <v>60</v>
+      </c>
+      <c r="H55" t="e">
+        <f>VLOOKUP(G55,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J55" t="e">
+        <f>VLOOKUP(I55,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <f>VLOOKUP(A56,Authors!$A$2:$B$52,2)</f>
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
         <v>112</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>173</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56">
+        <f>VLOOKUP(E56,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f>VLOOKUP(G56,Subject!$A$2:$B$94,2)</f>
+        <v>81</v>
+      </c>
+      <c r="J56" t="e">
+        <f>VLOOKUP(I56,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <f>VLOOKUP(A57,Authors!$A$2:$B$52,2)</f>
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
         <v>113</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>234</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57">
+        <f>VLOOKUP(E57,Subject!$A$2:$B$94,2)</f>
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f>VLOOKUP(G57,Subject!$A$2:$B$94,2)</f>
+        <v>78</v>
+      </c>
+      <c r="J57" t="e">
+        <f>VLOOKUP(I57,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <f>VLOOKUP(A58,Authors!$A$2:$B$52,2)</f>
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
         <v>155</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>214</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58">
+        <f>VLOOKUP(E58,Subject!$A$2:$B$94,2)</f>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
         <v>215</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58">
+        <f>VLOOKUP(G58,Subject!$A$2:$B$94,2)</f>
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f>VLOOKUP(I58,Subject!$A$2:$B$94,2)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <f>VLOOKUP(A59,Authors!$A$2:$B$52,2)</f>
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
         <v>114</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>173</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59">
+        <f>VLOOKUP(E59,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f>VLOOKUP(G59,Subject!$A$2:$B$94,2)</f>
+        <v>33</v>
+      </c>
+      <c r="J59" t="e">
+        <f>VLOOKUP(I59,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <f>VLOOKUP(A60,Authors!$A$2:$B$52,2)</f>
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
         <v>115</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f>VLOOKUP(E60,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="H60" t="e">
+        <f>VLOOKUP(G60,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J60" t="e">
+        <f>VLOOKUP(I60,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <f>VLOOKUP(A61,Authors!$A$2:$B$52,2)</f>
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
         <v>156</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61">
+        <f>VLOOKUP(E61,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="G61" t="s">
         <v>19</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61">
+        <f>VLOOKUP(G61,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="I61" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f>VLOOKUP(I61,Subject!$A$2:$B$94,2)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <f>VLOOKUP(A62,Authors!$A$2:$B$52,2)</f>
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
         <v>157</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f>VLOOKUP(E62,Subject!$A$2:$B$94,2)</f>
+        <v>6</v>
+      </c>
+      <c r="H62" t="e">
+        <f>VLOOKUP(G62,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J62" t="e">
+        <f>VLOOKUP(I62,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>55</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <f>VLOOKUP(A63,Authors!$A$2:$B$52,2)</f>
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
         <v>308</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>307</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63">
+        <f>VLOOKUP(E63,Subject!$A$2:$B$94,2)</f>
+        <v>66</v>
+      </c>
+      <c r="G63" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f>VLOOKUP(G63,Subject!$A$2:$B$94,2)</f>
+        <v>41</v>
+      </c>
+      <c r="J63" t="e">
+        <f>VLOOKUP(I63,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>55</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <f>VLOOKUP(A64,Authors!$A$2:$B$52,2)</f>
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
         <v>158</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f>VLOOKUP(E64,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="H64" t="e">
+        <f>VLOOKUP(G64,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J64" t="e">
+        <f>VLOOKUP(I64,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <f>VLOOKUP(A65,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
         <v>116</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f>VLOOKUP(E65,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="H65" t="e">
+        <f>VLOOKUP(G65,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J65" t="e">
+        <f>VLOOKUP(I65,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>56</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <f>VLOOKUP(A66,Authors!$A$2:$B$52,2)</f>
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
         <v>117</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>217</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66">
+        <f>VLOOKUP(E66,Subject!$A$2:$B$94,2)</f>
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
         <v>216</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66">
+        <f>VLOOKUP(G66,Subject!$A$2:$B$94,2)</f>
+        <v>54</v>
+      </c>
+      <c r="I66" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <f>VLOOKUP(I66,Subject!$A$2:$B$94,2)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <f>VLOOKUP(A67,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
         <v>118</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>19</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67">
+        <f>VLOOKUP(E67,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="G67" t="s">
         <v>202</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67">
+        <f>VLOOKUP(G67,Subject!$A$2:$B$94,2)</f>
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <f>VLOOKUP(I67,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <f>VLOOKUP(A68,Authors!$A$2:$B$52,2)</f>
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
         <v>119</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>219</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68">
+        <f>VLOOKUP(E68,Subject!$A$2:$B$94,2)</f>
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f>VLOOKUP(G68,Subject!$A$2:$B$94,2)</f>
+        <v>92</v>
+      </c>
+      <c r="J68" t="e">
+        <f>VLOOKUP(I68,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>36</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <f>VLOOKUP(A69,Authors!$A$2:$B$52,2)</f>
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
         <v>120</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>19</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69">
+        <f>VLOOKUP(E69,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="G69" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f>VLOOKUP(G69,Subject!$A$2:$B$94,2)</f>
+        <v>72</v>
+      </c>
+      <c r="J69" t="e">
+        <f>VLOOKUP(I69,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <f>VLOOKUP(A70,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
         <v>121</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f>VLOOKUP(E70,Subject!$A$2:$B$94,2)</f>
+        <v>24</v>
+      </c>
+      <c r="H70" t="e">
+        <f>VLOOKUP(G70,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J70" t="e">
+        <f>VLOOKUP(I70,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <f>VLOOKUP(A71,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
         <v>159</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f>VLOOKUP(E71,Subject!$A$2:$B$94,2)</f>
+        <v>83</v>
+      </c>
+      <c r="H71" t="e">
+        <f>VLOOKUP(G71,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J71" t="e">
+        <f>VLOOKUP(I71,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>57</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72">
+        <f>VLOOKUP(A72,Authors!$A$2:$B$52,2)</f>
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>122</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>181</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72">
+        <f>VLOOKUP(E72,Subject!$A$2:$B$94,2)</f>
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f>VLOOKUP(G72,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="J72" t="e">
+        <f>VLOOKUP(I72,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73">
+        <f>VLOOKUP(A73,Authors!$A$2:$B$52,2)</f>
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
         <v>123</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f>VLOOKUP(E73,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="H73" t="e">
+        <f>VLOOKUP(G73,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J73" t="e">
+        <f>VLOOKUP(I73,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>58</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <f>VLOOKUP(A74,Authors!$A$2:$B$52,2)</f>
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
         <v>124</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>5</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74">
+        <f>VLOOKUP(E74,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="G74" t="s">
         <v>222</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74">
+        <f>VLOOKUP(G74,Subject!$A$2:$B$94,2)</f>
+        <v>63</v>
+      </c>
+      <c r="I74" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <f>VLOOKUP(I74,Subject!$A$2:$B$94,2)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75">
+        <f>VLOOKUP(A75,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
         <v>125</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>5</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75">
+        <f>VLOOKUP(E75,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="G75" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <f>VLOOKUP(G75,Subject!$A$2:$B$94,2)</f>
+        <v>67</v>
+      </c>
+      <c r="J75" t="e">
+        <f>VLOOKUP(I75,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>59</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76">
+        <f>VLOOKUP(A76,Authors!$A$2:$B$52,2)</f>
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
         <v>160</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>173</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76">
+        <f>VLOOKUP(E76,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <f>VLOOKUP(G76,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+      <c r="J76" t="e">
+        <f>VLOOKUP(I76,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>60</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <f>VLOOKUP(A77,Authors!$A$2:$B$52,2)</f>
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
         <v>242</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f>VLOOKUP(E77,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="H77" t="e">
+        <f>VLOOKUP(G77,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J77" t="e">
+        <f>VLOOKUP(I77,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>61</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <f>VLOOKUP(A78,Authors!$A$2:$B$52,2)</f>
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
         <v>161</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>223</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78">
+        <f>VLOOKUP(E78,Subject!$A$2:$B$94,2)</f>
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
         <v>243</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78">
+        <f>VLOOKUP(G78,Subject!$A$2:$B$94,2)</f>
+        <v>21</v>
+      </c>
+      <c r="I78" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <f>VLOOKUP(I78,Subject!$A$2:$B$94,2)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>62</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <f>VLOOKUP(A79,Authors!$A$2:$B$52,2)</f>
+        <v>49</v>
+      </c>
+      <c r="C79" t="s">
         <v>126</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>5</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79">
+        <f>VLOOKUP(E79,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="G79" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f>VLOOKUP(G79,Subject!$A$2:$B$94,2)</f>
+        <v>40</v>
+      </c>
+      <c r="J79" t="e">
+        <f>VLOOKUP(I79,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>63</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <f>VLOOKUP(A80,Authors!$A$2:$B$52,2)</f>
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
         <v>162</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f>VLOOKUP(E80,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="H80" t="e">
+        <f>VLOOKUP(G80,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J80" t="e">
+        <f>VLOOKUP(I80,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <f>VLOOKUP(A81,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
+      <c r="C81" t="s">
         <v>163</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>173</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81">
+        <f>VLOOKUP(E81,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
         <v>174</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81">
+        <f>VLOOKUP(G81,Subject!$A$2:$B$94,2)</f>
+        <v>16</v>
+      </c>
+      <c r="I81" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <f>VLOOKUP(I81,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>22</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82">
+        <f>VLOOKUP(A82,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
         <v>127</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f>VLOOKUP(E82,Subject!$A$2:$B$94,2)</f>
+        <v>59</v>
+      </c>
+      <c r="H82" t="e">
+        <f>VLOOKUP(G82,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J82" t="e">
+        <f>VLOOKUP(I82,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>24</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83">
+        <f>VLOOKUP(A83,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
         <v>164</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>5</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83">
+        <f>VLOOKUP(E83,Subject!$A$2:$B$94,2)</f>
+        <v>42</v>
+      </c>
+      <c r="G83" t="s">
         <v>1</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83">
+        <f>VLOOKUP(G83,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="I83" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <f>VLOOKUP(I83,Subject!$A$2:$B$94,2)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>23</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <f>VLOOKUP(A84,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
         <v>128</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f>VLOOKUP(E84,Subject!$A$2:$B$94,2)</f>
+        <v>47</v>
+      </c>
+      <c r="H84" t="e">
+        <f>VLOOKUP(G84,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J84" t="e">
+        <f>VLOOKUP(I84,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85">
+        <f>VLOOKUP(A85,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
         <v>129</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>173</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85">
+        <f>VLOOKUP(E85,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
         <v>207</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85">
+        <f>VLOOKUP(G85,Subject!$A$2:$B$94,2)</f>
+        <v>51</v>
+      </c>
+      <c r="I85" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <f>VLOOKUP(I85,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>24</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86">
+        <f>VLOOKUP(A86,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
+      <c r="C86" t="s">
         <v>130</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>174</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86">
+        <f>VLOOKUP(E86,Subject!$A$2:$B$94,2)</f>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <f>VLOOKUP(G86,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="J86" t="e">
+        <f>VLOOKUP(I86,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87">
+        <f>VLOOKUP(A87,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
         <v>131</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>225</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87">
+        <f>VLOOKUP(E87,Subject!$A$2:$B$94,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
         <v>199</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87">
+        <f>VLOOKUP(G87,Subject!$A$2:$B$94,2)</f>
+        <v>70</v>
+      </c>
+      <c r="I87" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <f>VLOOKUP(I87,Subject!$A$2:$B$94,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88">
+        <f>VLOOKUP(A88,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
         <v>132</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f>VLOOKUP(E88,Subject!$A$2:$B$94,2)</f>
+        <v>36</v>
+      </c>
+      <c r="H88" t="e">
+        <f>VLOOKUP(G88,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J88" t="e">
+        <f>VLOOKUP(I88,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89">
+        <f>VLOOKUP(A89,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
+      <c r="C89" t="s">
         <v>133</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>202</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89">
+        <f>VLOOKUP(E89,Subject!$A$2:$B$94,2)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89">
+        <f>VLOOKUP(G89,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="J89" t="e">
+        <f>VLOOKUP(I89,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <f>VLOOKUP(A90,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
+      <c r="C90" t="s">
         <v>134</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>226</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f>VLOOKUP(E90,Subject!$A$2:$B$94,2)</f>
+        <v>85</v>
+      </c>
+      <c r="H90" t="e">
+        <f>VLOOKUP(G90,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J90" t="e">
+        <f>VLOOKUP(I90,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>45</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91">
+        <f>VLOOKUP(A91,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
         <v>135</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>227</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91">
+        <f>VLOOKUP(E91,Subject!$A$2:$B$94,2)</f>
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
         <v>228</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91">
+        <f>VLOOKUP(G91,Subject!$A$2:$B$94,2)</f>
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <f>VLOOKUP(I91,Subject!$A$2:$B$94,2)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92">
+        <f>VLOOKUP(A92,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
+      <c r="C92" t="s">
         <v>136</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f>VLOOKUP(E92,Subject!$A$2:$B$94,2)</f>
+        <v>85</v>
+      </c>
+      <c r="H92" t="e">
+        <f>VLOOKUP(G92,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J92" t="e">
+        <f>VLOOKUP(I92,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>64</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93">
+        <f>VLOOKUP(A93,Authors!$A$2:$B$52,2)</f>
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
         <v>165</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>202</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93">
+        <f>VLOOKUP(E93,Subject!$A$2:$B$94,2)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93">
+        <f>VLOOKUP(G93,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="J93" t="e">
+        <f>VLOOKUP(I93,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>65</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94">
+        <f>VLOOKUP(A94,Authors!$A$2:$B$52,2)</f>
+        <v>28</v>
+      </c>
+      <c r="C94" t="s">
         <v>137</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>229</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94">
+        <f>VLOOKUP(E94,Subject!$A$2:$B$94,2)</f>
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <f>VLOOKUP(G94,Subject!$A$2:$B$94,2)</f>
+        <v>55</v>
+      </c>
+      <c r="J94" t="e">
+        <f>VLOOKUP(I94,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>66</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95">
+        <f>VLOOKUP(A95,Authors!$A$2:$B$52,2)</f>
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
         <v>138</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f>VLOOKUP(E95,Subject!$A$2:$B$94,2)</f>
+        <v>18</v>
+      </c>
+      <c r="H95" t="e">
+        <f>VLOOKUP(G95,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J95" t="e">
+        <f>VLOOKUP(I95,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>67</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <f>VLOOKUP(A96,Authors!$A$2:$B$52,2)</f>
+        <v>36</v>
+      </c>
+      <c r="C96" t="s">
         <v>139</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f>VLOOKUP(E96,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="H96" t="e">
+        <f>VLOOKUP(G96,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J96" t="e">
+        <f>VLOOKUP(I96,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>68</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97">
+        <f>VLOOKUP(A97,Authors!$A$2:$B$52,2)</f>
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
         <v>140</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>19</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97">
+        <f>VLOOKUP(E97,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="G97" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <f>VLOOKUP(G97,Subject!$A$2:$B$94,2)</f>
+        <v>25</v>
+      </c>
+      <c r="J97" t="e">
+        <f>VLOOKUP(I97,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>166</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98">
+        <f>VLOOKUP(A98,Authors!$A$2:$B$52,2)</f>
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
         <v>141</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>173</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98">
+        <f>VLOOKUP(E98,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
         <v>197</v>
       </c>
-      <c r="F98" t="s">
+      <c r="H98">
+        <f>VLOOKUP(G98,Subject!$A$2:$B$94,2)</f>
+        <v>12</v>
+      </c>
+      <c r="I98" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <f>VLOOKUP(I98,Subject!$A$2:$B$94,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>33</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99">
+        <f>VLOOKUP(A99,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
+      <c r="C99" t="s">
         <v>142</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f>VLOOKUP(E99,Subject!$A$2:$B$94,2)</f>
+        <v>85</v>
+      </c>
+      <c r="H99" t="e">
+        <f>VLOOKUP(G99,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J99" t="e">
+        <f>VLOOKUP(I99,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100">
+        <f>VLOOKUP(A100,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
         <v>167</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f>VLOOKUP(E100,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="H100" t="e">
+        <f>VLOOKUP(G100,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J100" t="e">
+        <f>VLOOKUP(I100,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>44</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101">
+        <f>VLOOKUP(A101,Authors!$A$2:$B$52,2)</f>
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
         <v>143</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>173</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101">
+        <f>VLOOKUP(E101,Subject!$A$2:$B$94,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <f>VLOOKUP(G101,Subject!$A$2:$B$94,2)</f>
+        <v>57</v>
+      </c>
+      <c r="J101" t="e">
+        <f>VLOOKUP(I101,Subject!$A$2:$B$94,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>303</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102">
+        <f>VLOOKUP(A102,Authors!$A$2:$B$52,2)</f>
+        <v>47</v>
+      </c>
+      <c r="C102" t="s">
         <v>302</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>9</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102">
+        <f>VLOOKUP(E102,Subject!$A$2:$B$94,2)</f>
+        <v>46</v>
+      </c>
+      <c r="G102" t="s">
         <v>305</v>
       </c>
-      <c r="F102" t="s">
+      <c r="H102">
+        <f>VLOOKUP(G102,Subject!$A$2:$B$94,2)</f>
+        <v>20</v>
+      </c>
+      <c r="I102" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <f>VLOOKUP(I102,Subject!$A$2:$B$94,2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>303</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103">
+        <f>VLOOKUP(A103,Authors!$A$2:$B$52,2)</f>
+        <v>47</v>
+      </c>
+      <c r="C103" t="s">
         <v>306</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>19</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103">
+        <f>VLOOKUP(E103,Subject!$A$2:$B$94,2)</f>
+        <v>53</v>
+      </c>
+      <c r="G103" t="s">
         <v>307</v>
       </c>
-      <c r="F103" t="s">
+      <c r="H103">
+        <f>VLOOKUP(G103,Subject!$A$2:$B$94,2)</f>
+        <v>66</v>
+      </c>
+      <c r="I103" t="s">
         <v>168</v>
+      </c>
+      <c r="J103">
+        <f>VLOOKUP(I103,Subject!$A$2:$B$94,2)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3428,1049 +5124,2807 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE81901A-D0FF-40C0-A962-97A9B17F8A66}">
+  <dimension ref="A1:B94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>320</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>213</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>314</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B382">
+    <sortCondition ref="A2:A382"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>261</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1879</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>249</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <f>VLOOKUP(E2,Country!$A$2:$B$18,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>258</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2">
+        <f>VLOOKUP(G2,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>250</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2">
+        <f>VLOOKUP(I2,Career!$A$2:$B$28,2)</f>
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>VLOOKUP(K2,Career!$A$2:$B$28,2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>261</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1824</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>251</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <f>VLOOKUP(E3,Country!$A$2:$B$18,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H3" t="e">
+        <f>VLOOKUP(G3,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="s">
         <v>231</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3">
+        <f>VLOOKUP(I3,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f>VLOOKUP(K3,Career!$A$2:$B$28,2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>261</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1809</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>256</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <f>VLOOKUP(E4,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H4" t="e">
+        <f>VLOOKUP(G4,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>VLOOKUP(I4,Career!$A$2:$B$28,2)</f>
+        <v>19</v>
+      </c>
+      <c r="L4" t="e">
+        <f>VLOOKUP(K4,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>261</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1899</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>258</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <f>VLOOKUP(E5,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H5" t="e">
+        <f>VLOOKUP(G5,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="s">
         <v>231</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5">
+        <f>VLOOKUP(I5,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f>VLOOKUP(K5,Career!$A$2:$B$28,2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>247</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>261</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1869</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>251</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <f>VLOOKUP(E6,Country!$A$2:$B$18,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H6" t="e">
+        <f>VLOOKUP(G6,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>VLOOKUP(I6,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L6" t="e">
+        <f>VLOOKUP(K6,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>262</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1905</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>263</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7">
+        <f>VLOOKUP(E7,Country!$A$2:$B$18,2)</f>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>258</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7">
+        <f>VLOOKUP(G7,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>231</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7">
+        <f>VLOOKUP(I7,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f>VLOOKUP(K7,Career!$A$2:$B$28,2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>261</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1945</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>267</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <f>VLOOKUP(E8,Country!$A$2:$B$18,2)</f>
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>258</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8">
+        <f>VLOOKUP(G8,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>268</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8">
+        <f>VLOOKUP(I8,Career!$A$2:$B$28,2)</f>
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f>VLOOKUP(K8,Career!$A$2:$B$28,2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>261</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1898</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>256</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <f>VLOOKUP(E9,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H9" t="e">
+        <f>VLOOKUP(G9,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="s">
         <v>231</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9">
+        <f>VLOOKUP(I9,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f>VLOOKUP(K9,Career!$A$2:$B$28,2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>261</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1920</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>249</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10">
+        <f>VLOOKUP(E10,Country!$A$2:$B$18,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
         <v>258</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10">
+        <f>VLOOKUP(G10,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>257</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10">
+        <f>VLOOKUP(I10,Career!$A$2:$B$28,2)</f>
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f>VLOOKUP(K10,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>261</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1922</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>258</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <f>VLOOKUP(E11,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H11" t="e">
+        <f>VLOOKUP(G11,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f>VLOOKUP(I11,Career!$A$2:$B$28,2)</f>
+        <v>5</v>
+      </c>
+      <c r="L11" t="e">
+        <f>VLOOKUP(K11,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>261</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1952</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>258</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <f>VLOOKUP(E12,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H12" t="e">
+        <f>VLOOKUP(G12,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>VLOOKUP(I12,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L12" t="e">
+        <f>VLOOKUP(K12,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>261</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1904</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>258</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <f>VLOOKUP(E13,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H13" t="e">
+        <f>VLOOKUP(G13,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="s">
         <v>231</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13">
+        <f>VLOOKUP(I13,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>VLOOKUP(K13,Career!$A$2:$B$28,2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>261</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1894</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>258</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <f>VLOOKUP(E14,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H14" t="e">
+        <f>VLOOKUP(G14,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" t="s">
         <v>257</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14">
+        <f>VLOOKUP(I14,Career!$A$2:$B$28,2)</f>
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>VLOOKUP(K14,Career!$A$2:$B$28,2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>262</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1884</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>258</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <f>VLOOKUP(E15,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H15" t="e">
+        <f>VLOOKUP(G15,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" t="s">
         <v>273</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15">
+        <f>VLOOKUP(I15,Career!$A$2:$B$28,2)</f>
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f>VLOOKUP(K15,Career!$A$2:$B$28,2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>261</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1928</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>274</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16">
+        <f>VLOOKUP(E16,Country!$A$2:$B$18,2)</f>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>258</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16">
+        <f>VLOOKUP(G16,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
         <v>231</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16">
+        <f>VLOOKUP(I16,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f>VLOOKUP(K16,Career!$A$2:$B$28,2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>261</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1899</v>
-      </c>
-      <c r="D17" t="s">
-        <v>258</v>
       </c>
       <c r="E17" t="s">
         <v>258</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <f>VLOOKUP(E17,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP(G17,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>VLOOKUP(I17,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L17" t="e">
+        <f>VLOOKUP(K17,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>246</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>261</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1884</v>
-      </c>
-      <c r="D18" t="s">
-        <v>249</v>
       </c>
       <c r="E18" t="s">
         <v>249</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <f>VLOOKUP(E18,Country!$A$2:$B$18,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18">
+        <f>VLOOKUP(G18,Country!$A$2:$B$18,2)</f>
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>VLOOKUP(I18,Career!$A$2:$B$28,2)</f>
+        <v>15</v>
+      </c>
+      <c r="L18" t="e">
+        <f>VLOOKUP(K18,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>261</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1942</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>258</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <f>VLOOKUP(E19,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H19" t="e">
+        <f>VLOOKUP(G19,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="s">
         <v>231</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19">
+        <f>VLOOKUP(I19,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f>VLOOKUP(K19,Career!$A$2:$B$28,2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
         <v>261</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1856</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>277</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20">
+        <f>VLOOKUP(E20,Country!$A$2:$B$18,2)</f>
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
         <v>258</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20">
+        <f>VLOOKUP(G20,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
         <v>252</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20">
+        <f>VLOOKUP(I20,Career!$A$2:$B$28,2)</f>
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f>VLOOKUP(K20,Career!$A$2:$B$28,2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>261</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1937</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>258</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <f>VLOOKUP(E21,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H21" t="e">
+        <f>VLOOKUP(G21,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="s">
         <v>278</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21">
+        <f>VLOOKUP(I21,Career!$A$2:$B$28,2)</f>
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>VLOOKUP(K21,Career!$A$2:$B$28,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>262</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1819</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>256</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <f>VLOOKUP(E22,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H22" t="e">
+        <f>VLOOKUP(G22,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="s">
         <v>231</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22">
+        <f>VLOOKUP(I22,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f>VLOOKUP(K22,Career!$A$2:$B$28,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>261</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1948</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>258</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <f>VLOOKUP(E23,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H23" t="e">
+        <f>VLOOKUP(G23,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I23" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>VLOOKUP(I23,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L23" t="e">
+        <f>VLOOKUP(K23,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
         <v>262</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1926</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>258</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <f>VLOOKUP(E24,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H24" t="e">
+        <f>VLOOKUP(G24,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>VLOOKUP(I24,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L24" t="e">
+        <f>VLOOKUP(K24,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>261</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1949</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>280</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <f>VLOOKUP(E25,Country!$A$2:$B$18,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H25" t="e">
+        <f>VLOOKUP(G25,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f>VLOOKUP(I25,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L25" t="e">
+        <f>VLOOKUP(K25,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>262</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1880</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>258</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26">
+        <f>VLOOKUP(E26,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H26" t="e">
+        <f>VLOOKUP(G26,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="s">
         <v>231</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26">
+        <f>VLOOKUP(I26,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f>VLOOKUP(K26,Career!$A$2:$B$28,2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
         <v>261</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1919</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>258</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27">
+        <f>VLOOKUP(E27,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H27" t="e">
+        <f>VLOOKUP(G27,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f>VLOOKUP(I27,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L27" t="e">
+        <f>VLOOKUP(K27,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>262</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1965</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>256</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28">
+        <f>VLOOKUP(E28,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H28" t="e">
+        <f>VLOOKUP(G28,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>VLOOKUP(I28,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L28" t="e">
+        <f>VLOOKUP(K28,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
         <v>261</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1860</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>256</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29">
+        <f>VLOOKUP(E29,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H29" t="e">
+        <f>VLOOKUP(G29,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f>VLOOKUP(I29,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L29" t="e">
+        <f>VLOOKUP(K29,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
         <v>261</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1892</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>281</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30">
+        <f>VLOOKUP(E30,Country!$A$2:$B$18,2)</f>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
         <v>256</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30">
+        <f>VLOOKUP(G30,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
         <v>231</v>
       </c>
-      <c r="G30" t="s">
+      <c r="J30">
+        <f>VLOOKUP(I30,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f>VLOOKUP(K30,Career!$A$2:$B$28,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>261</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1924</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>258</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31">
+        <f>VLOOKUP(E31,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
         <v>251</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31">
+        <f>VLOOKUP(G31,Country!$A$2:$B$18,2)</f>
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
         <v>231</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31">
+        <f>VLOOKUP(I31,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f>VLOOKUP(K31,Career!$A$2:$B$28,2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
         <v>262</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1775</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>256</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <f>VLOOKUP(E32,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H32" t="e">
+        <f>VLOOKUP(G32,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f>VLOOKUP(I32,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L32" t="e">
+        <f>VLOOKUP(K32,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
         <v>261</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1936</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>258</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33">
+        <f>VLOOKUP(E33,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H33" t="e">
+        <f>VLOOKUP(G33,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="s">
         <v>282</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33">
+        <f>VLOOKUP(I33,Career!$A$2:$B$28,2)</f>
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f>VLOOKUP(K33,Career!$A$2:$B$28,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
         <v>261</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1942</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>258</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34">
+        <f>VLOOKUP(E34,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H34" t="e">
+        <f>VLOOKUP(G34,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="s">
         <v>268</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34">
+        <f>VLOOKUP(I34,Career!$A$2:$B$28,2)</f>
+        <v>12</v>
+      </c>
+      <c r="K34" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f>VLOOKUP(K34,Career!$A$2:$B$28,2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
         <v>261</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1940</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>256</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35">
+        <f>VLOOKUP(E35,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
         <v>258</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35">
+        <f>VLOOKUP(G35,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
         <v>284</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35">
+        <f>VLOOKUP(I35,Career!$A$2:$B$28,2)</f>
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f>VLOOKUP(K35,Career!$A$2:$B$28,2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
         <v>261</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1899</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>285</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36">
+        <f>VLOOKUP(E36,Country!$A$2:$B$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
         <v>286</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36">
+        <f>VLOOKUP(G36,Country!$A$2:$B$18,2)</f>
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
         <v>231</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36">
+        <f>VLOOKUP(I36,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f>VLOOKUP(K36,Career!$A$2:$B$28,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>261</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1965</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>287</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37">
+        <f>VLOOKUP(E37,Country!$A$2:$B$18,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
         <v>258</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37">
+        <f>VLOOKUP(G37,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
         <v>231</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J37">
+        <f>VLOOKUP(I37,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f>VLOOKUP(K37,Career!$A$2:$B$28,2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>166</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
         <v>262</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1918</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>258</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38">
+        <f>VLOOKUP(E38,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H38" t="e">
+        <f>VLOOKUP(G38,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38" t="s">
         <v>231</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38">
+        <f>VLOOKUP(I38,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f>VLOOKUP(K38,Career!$A$2:$B$28,2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
         <v>262</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1926</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>258</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39">
+        <f>VLOOKUP(E39,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
         <v>289</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="e">
+        <f>VLOOKUP(G39,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I39" t="s">
         <v>279</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39">
+        <f>VLOOKUP(I39,Career!$A$2:$B$28,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f>VLOOKUP(K39,Career!$A$2:$B$28,2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
         <v>261</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1835</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>258</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40">
+        <f>VLOOKUP(E40,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H40" t="e">
+        <f>VLOOKUP(G40,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f>VLOOKUP(I40,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L40" t="e">
+        <f>VLOOKUP(K40,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
         <v>261</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1929</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>258</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41">
+        <f>VLOOKUP(E41,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H41" t="e">
+        <f>VLOOKUP(G41,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I41" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f>VLOOKUP(I41,Career!$A$2:$B$28,2)</f>
+        <v>21</v>
+      </c>
+      <c r="L41" t="e">
+        <f>VLOOKUP(K41,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
         <v>262</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>1910</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>292</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42">
+        <f>VLOOKUP(E42,Country!$A$2:$B$18,2)</f>
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
         <v>293</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42">
+        <f>VLOOKUP(G42,Country!$A$2:$B$18,2)</f>
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
         <v>294</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42">
+        <f>VLOOKUP(I42,Career!$A$2:$B$28,2)</f>
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f>VLOOKUP(K42,Career!$A$2:$B$28,2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
         <v>261</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>1904</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>296</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43">
+        <f>VLOOKUP(E43,Country!$A$2:$B$18,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H43" t="e">
+        <f>VLOOKUP(G43,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I43" t="s">
         <v>257</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43">
+        <f>VLOOKUP(I43,Career!$A$2:$B$28,2)</f>
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f>VLOOKUP(K43,Career!$A$2:$B$28,2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
         <v>261</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>1803</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>258</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44">
+        <f>VLOOKUP(E44,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H44" t="e">
+        <f>VLOOKUP(G44,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I44" t="s">
         <v>257</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44">
+        <f>VLOOKUP(I44,Career!$A$2:$B$28,2)</f>
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f>VLOOKUP(K44,Career!$A$2:$B$28,2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
         <v>262</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>1973</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>258</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45">
+        <f>VLOOKUP(E45,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H45" t="e">
+        <f>VLOOKUP(G45,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I45" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f>VLOOKUP(I45,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L45" t="e">
+        <f>VLOOKUP(K45,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
         <v>261</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>1945</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>258</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46">
+        <f>VLOOKUP(E46,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H46" t="e">
+        <f>VLOOKUP(G46,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I46" t="s">
         <v>279</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46">
+        <f>VLOOKUP(I46,Career!$A$2:$B$28,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f>VLOOKUP(K46,Career!$A$2:$B$28,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
         <v>262</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1962</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>258</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47">
+        <f>VLOOKUP(E47,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H47" t="e">
+        <f>VLOOKUP(G47,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I47" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f>VLOOKUP(I47,Career!$A$2:$B$28,2)</f>
+        <v>1</v>
+      </c>
+      <c r="L47" t="e">
+        <f>VLOOKUP(K47,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
         <v>261</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1948</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>256</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48">
+        <f>VLOOKUP(E48,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H48" t="e">
+        <f>VLOOKUP(G48,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I48" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f>VLOOKUP(I48,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="L48" t="e">
+        <f>VLOOKUP(K48,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
         <v>261</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>1847</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>258</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49">
+        <f>VLOOKUP(E49,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H49" t="e">
+        <f>VLOOKUP(G49,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I49" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f>VLOOKUP(I49,Career!$A$2:$B$28,2)</f>
+        <v>9</v>
+      </c>
+      <c r="L49" t="e">
+        <f>VLOOKUP(K49,Career!$A$2:$B$28,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
         <v>261</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>1880</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>258</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50">
+        <f>VLOOKUP(E50,Country!$A$2:$B$18,2)</f>
+        <v>17</v>
+      </c>
+      <c r="H50" t="e">
+        <f>VLOOKUP(G50,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I50" t="s">
         <v>279</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50">
+        <f>VLOOKUP(I50,Career!$A$2:$B$28,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <f>VLOOKUP(K50,Career!$A$2:$B$28,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
         <v>261</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>1872</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>256</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51">
+        <f>VLOOKUP(E51,Country!$A$2:$B$18,2)</f>
+        <v>16</v>
+      </c>
+      <c r="H51" t="e">
+        <f>VLOOKUP(G51,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I51" t="s">
         <v>298</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51">
+        <f>VLOOKUP(I51,Career!$A$2:$B$28,2)</f>
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <f>VLOOKUP(K51,Career!$A$2:$B$28,2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>303</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
         <v>261</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>1869</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>304</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52">
+        <f>VLOOKUP(E52,Country!$A$2:$B$18,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H52" t="e">
+        <f>VLOOKUP(G52,Country!$A$2:$B$18,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I52" t="s">
         <v>231</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52">
+        <f>VLOOKUP(I52,Career!$A$2:$B$28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K52" t="s">
         <v>275</v>
+      </c>
+      <c r="L52">
+        <f>VLOOKUP(K52,Career!$A$2:$B$28,2)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4480,4 +7934,408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E12ACD2-759E-4BBA-B3E7-D0CE7CA34B1B}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B102">
+    <sortCondition ref="A2:A102"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5697AF7-B601-42D8-AD5F-BDDEBC23DFB9}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B103">
+    <sortCondition ref="A2:A103"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/00_Raw_Assets/quotes_v1.xlsx
+++ b/00_Raw_Assets/quotes_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\01_GK_Tutorials\12_91902_Quotes_DB\00_Raw_Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\01_GK_Tutorials\13_91902_Quotes_DB\00_Raw_Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E6AD78-F27F-413A-BA0C-6151542442AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001769BF-4FC2-4F72-BE25-B30B01970BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -1958,9 +1958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5900,7 +5900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
